--- a/population-projection/src/main/resources/age_specific_fertility_rates/RSFSR/RSFSR-ASFR.xlsx
+++ b/population-projection/src/main/resources/age_specific_fertility_rates/RSFSR/RSFSR-ASFR.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\population-projection\src\main\resources\age_specific_fertility_rates\RSFSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196830A-1FF2-4B82-A5E0-64EF16FD42EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7BA02-06E4-4ECE-ADFA-E9562F4317E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58725" yWindow="1350" windowWidth="16050" windowHeight="17790" activeTab="1" xr2:uid="{DFBE193A-5733-46C8-91AC-A25957F41089}"/>
+    <workbookView xWindow="92700" yWindow="0" windowWidth="16110" windowHeight="20985" activeTab="3" xr2:uid="{DFBE193A-5733-46C8-91AC-A25957F41089}"/>
   </bookViews>
   <sheets>
     <sheet name="Comment" sheetId="2" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Total" sheetId="1" r:id="rId2"/>
+    <sheet name="Urban" sheetId="3" r:id="rId3"/>
+    <sheet name="Rural" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>год</t>
   </si>
@@ -61,16 +63,22 @@
     <t>50-54</t>
   </si>
   <si>
-    <t>Число рождений на 1000 женщин в возрасте (лет)</t>
-  </si>
-  <si>
     <t>Возрастные коэффициенты рождаемости</t>
   </si>
   <si>
     <t>(родившиеся живыми на 1000 женщин в возрасте … лет)</t>
   </si>
   <si>
-    <t>Росстат, "Демографический ежегодник России 2010", стр. 134</t>
+    <t>Росстат, "Демографический ежегодник России 2010", стр. 134-136</t>
+  </si>
+  <si>
+    <t>Число рождений на 1000 женщин в возрасте (лет), всё население</t>
+  </si>
+  <si>
+    <t>Число рождений на 1000 женщин в возрасте (лет), городское население</t>
+  </si>
+  <si>
+    <t>Число рождений на 1000 женщин в возрасте (лет), сельское население</t>
   </si>
 </sst>
 </file>
@@ -123,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -134,6 +142,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -453,24 +467,24 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -483,23 +497,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AFB522-F00A-4372-87E5-328006E655EB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -1525,6 +1539,2096 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED27D79-AE39-4F88-BA1A-47ED08356B39}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>1959</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>129</v>
+      </c>
+      <c r="E3" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>38.1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>1965</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>104.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>58.9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>1970</v>
+      </c>
+      <c r="B5" s="1">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>135.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>97.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>1975</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>140</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100.9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>1980</v>
+      </c>
+      <c r="B7" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>1981</v>
+      </c>
+      <c r="B8" s="1">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C8" s="1">
+        <v>139.4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>94.2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>1982</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>137.9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>97.3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>1983</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>140.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>103.7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>1984</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>105.3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>1985</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>141.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>102.7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>55.4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>1986</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>145.1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>105.1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>57.9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>1987</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>152.9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>108</v>
+      </c>
+      <c r="E14" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>1988</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>152</v>
+      </c>
+      <c r="D15" s="1">
+        <v>99.9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>1989</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>149.1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>96.4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>1990</v>
+      </c>
+      <c r="B17" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44.1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>1991</v>
+      </c>
+      <c r="B18" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="E18" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>1992</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>116.7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>1993</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>104.4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>1994</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>106.1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>1995</v>
+      </c>
+      <c r="B22" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>100.9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B23" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>95.1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>60.2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B24" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>88.8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B25" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>88.6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>61.7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B26" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>84.7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B28" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E28" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="F28" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B29" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="E29" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B30" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E30" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B31" s="1">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>77.7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B32" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="D32" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B33" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>75.2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="F33" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B34" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>75.2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B35" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>78</v>
+      </c>
+      <c r="D35" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B36" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>79.3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E245E5-8A47-428E-A18A-78C249832F91}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>1959</v>
+      </c>
+      <c r="B3" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>191.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>192.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>134.9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>84.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>1965</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>205.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>160.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>107.7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>1970</v>
+      </c>
+      <c r="B5" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>183.8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>131.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>1975</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C6" s="1">
+        <v>231.6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44.9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>1980</v>
+      </c>
+      <c r="B7" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>210.7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>126.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F7" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>1981</v>
+      </c>
+      <c r="B8" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>223.4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>128.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>1982</v>
+      </c>
+      <c r="B9" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>249.9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>71.7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>1983</v>
+      </c>
+      <c r="B10" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>260.10000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>146.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>1984</v>
+      </c>
+      <c r="B11" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>149</v>
+      </c>
+      <c r="E11" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F11" s="1">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>1985</v>
+      </c>
+      <c r="B12" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>256.8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>152.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>33.9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>1986</v>
+      </c>
+      <c r="B13" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>244.7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>166.6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>82.4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>1987</v>
+      </c>
+      <c r="B14" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>232.6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>187</v>
+      </c>
+      <c r="E14" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>1988</v>
+      </c>
+      <c r="B15" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>221.9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>179.1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>1989</v>
+      </c>
+      <c r="B16" s="1">
+        <v>78.8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>212.2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>124.8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F16" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>1990</v>
+      </c>
+      <c r="B17" s="1">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1">
+        <v>207.1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>116.2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="F17" s="1">
+        <v>28.3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>1991</v>
+      </c>
+      <c r="B18" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>200.1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>107.4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>1992</v>
+      </c>
+      <c r="B19" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>187.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>1993</v>
+      </c>
+      <c r="B20" s="1">
+        <v>68.2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>170.3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>1994</v>
+      </c>
+      <c r="B21" s="1">
+        <v>68.2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>166.3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F21" s="1">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>1995</v>
+      </c>
+      <c r="B22" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F22" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B23" s="1">
+        <v>55.2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>141.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B24" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>129.9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B25" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>83.2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="F25" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1">
+        <v>122.3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>38.1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44.1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>124.2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="E27" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F27" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>122.9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E28" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>127.4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B30" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>129.6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B31" s="1">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C31" s="1">
+        <v>129.1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B32" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C32" s="1">
+        <v>124.2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>86.3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B33" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C33" s="1">
+        <v>125</v>
+      </c>
+      <c r="D33" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="F33" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B34" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>128.1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>104</v>
+      </c>
+      <c r="E34" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="F34" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B35" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>126.4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>111.3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="F35" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42.2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>121.6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>114.5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F36" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{0cf7ac0a-4681-4823-ab0b-04ef02c5f873}" enabled="1" method="Standard" siteId="{42f7676c-f455-423c-82f6-dc2d99791af7}" contentBits="0" removed="0"/>

--- a/population-projection/src/main/resources/age_specific_fertility_rates/RSFSR/RSFSR-ASFR.xlsx
+++ b/population-projection/src/main/resources/age_specific_fertility_rates/RSFSR/RSFSR-ASFR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\population-projection\src\main\resources\age_specific_fertility_rates\RSFSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7BA02-06E4-4ECE-ADFA-E9562F4317E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825ED381-517F-462D-B5C5-ED2A7F52E59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="92700" yWindow="0" windowWidth="16110" windowHeight="20985" activeTab="3" xr2:uid="{DFBE193A-5733-46C8-91AC-A25957F41089}"/>
+    <workbookView xWindow="77160" yWindow="1140" windowWidth="26505" windowHeight="19740" activeTab="1" xr2:uid="{DFBE193A-5733-46C8-91AC-A25957F41089}"/>
   </bookViews>
   <sheets>
     <sheet name="Comment" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>год</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Число рождений на 1000 женщин в возрасте (лет), сельское население</t>
+  </si>
+  <si>
+    <t>Для 1959-2009</t>
+  </si>
+  <si>
+    <t>Для 1927-1958</t>
+  </si>
+  <si>
+    <t>Е.М. Андреев, Л.E. Дарский, T.Л. Харькова, "Демографическая история России : 1927-1959", НИИ статистики Госкомстата России, М. 1998, стр. 166.</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -144,10 +153,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF051EC9-C6EB-4470-8FD2-D48CF3BEC547}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -483,7 +495,22 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -495,25 +522,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AFB522-F00A-4372-87E5-328006E655EB}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -545,988 +572,1771 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
+        <v>1927</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>235.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>323.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>210.8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8">
+        <v>1928</v>
+      </c>
+      <c r="B4" s="1">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>248.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>295.7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>221.1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>138.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8">
+        <v>1929</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>224</v>
+      </c>
+      <c r="D5" s="1">
+        <v>294.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>257</v>
+      </c>
+      <c r="F5" s="1">
+        <v>215.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>134.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8">
+        <v>1930</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>212.6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <v>248.7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>210.4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>121</v>
+      </c>
+      <c r="H6" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8">
+        <v>1931</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>211.3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>251</v>
+      </c>
+      <c r="E7" s="1">
+        <v>238.3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>198.4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>117.7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8">
+        <v>1932</v>
+      </c>
+      <c r="B8" s="1">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>187.9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>239.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>208.7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>181.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>99.4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8">
+        <v>1933</v>
+      </c>
+      <c r="B9" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>190.3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>161.6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="H9" s="1">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8">
+        <v>1934</v>
+      </c>
+      <c r="B10" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>137.1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>150.1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>144.6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8">
+        <v>1935</v>
+      </c>
+      <c r="B11" s="1">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1">
+        <v>170</v>
+      </c>
+      <c r="D11" s="1">
+        <v>196</v>
+      </c>
+      <c r="E11" s="1">
+        <v>159.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>160</v>
+      </c>
+      <c r="G11" s="1">
+        <v>85.8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8">
+        <v>1936</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>184.9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>213.9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>172.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>34.1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8">
+        <v>1937</v>
+      </c>
+      <c r="B13" s="1">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C13" s="1">
+        <v>207.9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>243.4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>206.3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>176.9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100.6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8">
+        <v>1938</v>
+      </c>
+      <c r="B14" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>197.7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>259.7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>195.8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>162.9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>106.6</v>
+      </c>
+      <c r="H14" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8">
+        <v>1939</v>
+      </c>
+      <c r="B15" s="1">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C15" s="1">
+        <v>199.1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>241.7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>195.7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>160.9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>108</v>
+      </c>
+      <c r="H15" s="1">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="8">
+        <v>1940</v>
+      </c>
+      <c r="B16" s="1">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1">
+        <v>165.1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>206.6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>183.9</v>
+      </c>
+      <c r="F16" s="1">
+        <v>146.1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>96.1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="8">
+        <v>1946</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>124.3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>132.9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>125.2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>97.8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8">
+        <v>1947</v>
+      </c>
+      <c r="B18" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>161.9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>118.8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="8">
+        <v>1948</v>
+      </c>
+      <c r="B19" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>147.9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>147.5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="G19" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H19" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="8">
+        <v>1949</v>
+      </c>
+      <c r="B20" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>157</v>
+      </c>
+      <c r="D20" s="1">
+        <v>190.7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>123.4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>91.6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="8">
+        <v>1950</v>
+      </c>
+      <c r="B21" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>184</v>
+      </c>
+      <c r="E21" s="1">
+        <v>104.3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G21" s="1">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="8">
+        <v>1951</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>147.5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>191</v>
+      </c>
+      <c r="E22" s="1">
+        <v>113</v>
+      </c>
+      <c r="F22" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="8">
+        <v>1952</v>
+      </c>
+      <c r="B23" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>186.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>112.1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8">
+        <v>1953</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>141.5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>181.3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>110.9</v>
+      </c>
+      <c r="F24" s="1">
+        <v>63.7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="8">
+        <v>1954</v>
+      </c>
+      <c r="B25" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>148.9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>193.1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>124.4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="G25" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8">
+        <v>1955</v>
+      </c>
+      <c r="B26" s="1">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>188.3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>124.2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>69</v>
+      </c>
+      <c r="G26" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="8">
+        <v>1956</v>
+      </c>
+      <c r="B27" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>140.1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>168.8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>123.7</v>
+      </c>
+      <c r="F27" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="8">
+        <v>1957</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>144.4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>159.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>123</v>
+      </c>
+      <c r="F28" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="8">
+        <v>1958</v>
+      </c>
+      <c r="B29" s="1">
+        <v>33.4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>151.1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>120.2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
         <v>1959</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B30" s="1">
         <v>28.4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C30" s="1">
         <v>157.9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D30" s="1">
         <v>156.4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E30" s="1">
         <v>101.9</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F30" s="1">
         <v>57.7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G30" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H30" s="1">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4">
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
         <v>1965</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B31" s="1">
         <v>22.7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C31" s="1">
         <v>150.80000000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D31" s="1">
         <v>122.8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E31" s="1">
         <v>77.3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F31" s="1">
         <v>39.200000000000003</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G31" s="1">
         <v>13.4</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H31" s="1">
         <v>1.5</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4">
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
         <v>1970</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B32" s="1">
         <v>28.3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C32" s="1">
         <v>146.9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D32" s="1">
         <v>107.4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E32" s="1">
         <v>69.3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F32" s="1">
         <v>32.200000000000003</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G32" s="1">
         <v>9</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H32" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4">
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
         <v>1975</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B33" s="1">
         <v>33.9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C33" s="1">
         <v>158.80000000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D33" s="1">
         <v>110.5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E33" s="1">
         <v>58.6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F33" s="1">
         <v>28.9</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G33" s="1">
         <v>7.3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H33" s="1">
         <v>0.6</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4">
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
         <v>1980</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B34" s="1">
         <v>42.7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C34" s="1">
         <v>157.1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D34" s="1">
         <v>101.2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E34" s="1">
         <v>52.6</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F34" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G34" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H34" s="1">
         <v>0.4</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4">
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
         <v>1981</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B35" s="1">
         <v>43.6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C35" s="1">
         <v>157.6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D35" s="1">
         <v>102</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E35" s="1">
         <v>52</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F35" s="1">
         <v>18.8</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4">
-        <v>1982</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43.6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>159.1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>105.9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>54.9</v>
-      </c>
-      <c r="F9" s="1">
-        <v>21.9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4">
-        <v>1983</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44.7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>163.80000000000001</v>
-      </c>
-      <c r="D10" s="1">
-        <v>113.1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>59.8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4">
-        <v>1984</v>
-      </c>
-      <c r="B11" s="1">
-        <v>46.1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>166.3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>114.9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>61.2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4">
-        <v>1985</v>
-      </c>
-      <c r="B12" s="1">
-        <v>46.9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>164.2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>113.3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4">
-        <v>1986</v>
-      </c>
-      <c r="B13" s="1">
-        <v>46.9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>165.7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>117.5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>63</v>
-      </c>
-      <c r="F13" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4">
-        <v>1987</v>
-      </c>
-      <c r="B14" s="1">
-        <v>48.5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>170.6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>122.6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>67.8</v>
-      </c>
-      <c r="F14" s="1">
-        <v>27.8</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4">
-        <v>1988</v>
-      </c>
-      <c r="B15" s="1">
-        <v>49.6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>167.9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>114.1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>61.8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4">
-        <v>1989</v>
-      </c>
-      <c r="B16" s="1">
-        <v>52.5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>163.9</v>
-      </c>
-      <c r="D16" s="1">
-        <v>103.1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>54.6</v>
-      </c>
-      <c r="F16" s="1">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4">
-        <v>1990</v>
-      </c>
-      <c r="B17" s="1">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1">
-        <v>156.5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>93.1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>48.2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4">
-        <v>1991</v>
-      </c>
-      <c r="B18" s="1">
-        <v>54.2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>145.9</v>
-      </c>
-      <c r="D18" s="1">
-        <v>82.7</v>
-      </c>
-      <c r="E18" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4">
-        <v>1992</v>
-      </c>
-      <c r="B19" s="1">
-        <v>50.7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>132.9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="E19" s="1">
-        <v>34.9</v>
-      </c>
-      <c r="F19" s="1">
-        <v>13.9</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4">
-        <v>1993</v>
-      </c>
-      <c r="B20" s="1">
-        <v>47.3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>119.1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>63.7</v>
-      </c>
-      <c r="E20" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="F20" s="1">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="4">
-        <v>1994</v>
-      </c>
-      <c r="B21" s="1">
-        <v>49.1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>119.4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>66.8</v>
-      </c>
-      <c r="E21" s="1">
-        <v>29.4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="4">
-        <v>1995</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44.8</v>
-      </c>
-      <c r="C22" s="1">
-        <v>112.7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>66.5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>29.5</v>
-      </c>
-      <c r="F22" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="4">
-        <v>1996</v>
-      </c>
-      <c r="B23" s="1">
-        <v>38.9</v>
-      </c>
-      <c r="C23" s="1">
-        <v>105.5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>65.5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>30.1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="4">
-        <v>1997</v>
-      </c>
-      <c r="B24" s="1">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="C24" s="1">
-        <v>98</v>
-      </c>
-      <c r="D24" s="1">
-        <v>64.8</v>
-      </c>
-      <c r="E24" s="1">
-        <v>31.2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="4">
-        <v>1998</v>
-      </c>
-      <c r="B25" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>98.1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>66.7</v>
-      </c>
-      <c r="E25" s="1">
-        <v>33.1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="4">
-        <v>1999</v>
-      </c>
-      <c r="B26" s="1">
-        <v>28.9</v>
-      </c>
-      <c r="C26" s="1">
-        <v>91.8</v>
-      </c>
-      <c r="D26" s="1">
-        <v>63.7</v>
-      </c>
-      <c r="E26" s="1">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="F26" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B27" s="1">
-        <v>27.4</v>
-      </c>
-      <c r="C27" s="1">
-        <v>93.6</v>
-      </c>
-      <c r="D27" s="1">
-        <v>67.3</v>
-      </c>
-      <c r="E27" s="1">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="F27" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="4">
-        <v>2001</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27.3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>93.1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>70.2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>38</v>
-      </c>
-      <c r="F28" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="4">
-        <v>2002</v>
-      </c>
-      <c r="B29" s="1">
-        <v>27.4</v>
-      </c>
-      <c r="C29" s="1">
-        <v>95.7</v>
-      </c>
-      <c r="D29" s="1">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="E29" s="1">
-        <v>41.7</v>
-      </c>
-      <c r="F29" s="1">
-        <v>14.7</v>
-      </c>
-      <c r="G29" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="4">
-        <v>2003</v>
-      </c>
-      <c r="B30" s="1">
-        <v>27.6</v>
-      </c>
-      <c r="C30" s="1">
-        <v>95.1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>78.3</v>
-      </c>
-      <c r="E30" s="1">
-        <v>44.1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>16</v>
-      </c>
-      <c r="G30" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="4">
-        <v>2004</v>
-      </c>
-      <c r="B31" s="1">
-        <v>28.2</v>
-      </c>
-      <c r="C31" s="1">
-        <v>93.4</v>
-      </c>
-      <c r="D31" s="1">
-        <v>80.2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>45.9</v>
-      </c>
-      <c r="F31" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="4">
-        <v>2005</v>
-      </c>
-      <c r="B32" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="C32" s="1">
-        <v>86.8</v>
-      </c>
-      <c r="D32" s="1">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="E32" s="1">
-        <v>45.5</v>
-      </c>
-      <c r="F32" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="G32" s="1">
-        <v>3</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="4">
-        <v>2006</v>
-      </c>
-      <c r="B33" s="1">
-        <v>28.6</v>
-      </c>
-      <c r="C33" s="1">
-        <v>85.8</v>
-      </c>
-      <c r="D33" s="1">
-        <v>78.2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>46.8</v>
-      </c>
-      <c r="F33" s="1">
-        <v>18.7</v>
-      </c>
-      <c r="G33" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="4">
-        <v>2007</v>
-      </c>
-      <c r="B34" s="1">
-        <v>29.1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>87.5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>86.3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>54.5</v>
-      </c>
-      <c r="F34" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="4">
-        <v>2008</v>
-      </c>
-      <c r="B35" s="1">
-        <v>30.5</v>
-      </c>
-      <c r="C35" s="1">
-        <v>89.8</v>
-      </c>
-      <c r="D35" s="1">
-        <v>91</v>
-      </c>
-      <c r="E35" s="1">
-        <v>60.4</v>
-      </c>
-      <c r="F35" s="1">
-        <v>25.9</v>
       </c>
       <c r="G35" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="H35" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>1982</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>159.1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>105.9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="F36" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
+        <v>1983</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="C37" s="1">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="D37" s="1">
+        <v>113.1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="F37" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5">
+        <v>1984</v>
+      </c>
+      <c r="B38" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>166.3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>114.9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>24</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5">
+        <v>1985</v>
+      </c>
+      <c r="B39" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>164.2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>113.3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>60</v>
+      </c>
+      <c r="F39" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5">
+        <v>1986</v>
+      </c>
+      <c r="B40" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="C40" s="1">
+        <v>165.7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>63</v>
+      </c>
+      <c r="F40" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5">
+        <v>1987</v>
+      </c>
+      <c r="B41" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>170.6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>122.6</v>
+      </c>
+      <c r="E41" s="1">
+        <v>67.8</v>
+      </c>
+      <c r="F41" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H41" s="1">
         <v>0.2</v>
       </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="4">
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5">
+        <v>1988</v>
+      </c>
+      <c r="B42" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>167.9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>114.1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>61.8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5">
+        <v>1989</v>
+      </c>
+      <c r="B43" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>163.9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="F43" s="1">
+        <v>22</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5">
+        <v>1990</v>
+      </c>
+      <c r="B44" s="1">
+        <v>55</v>
+      </c>
+      <c r="C44" s="1">
+        <v>156.5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5">
+        <v>1991</v>
+      </c>
+      <c r="B45" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>145.9</v>
+      </c>
+      <c r="D45" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5">
+        <v>1992</v>
+      </c>
+      <c r="B46" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="C46" s="1">
+        <v>132.9</v>
+      </c>
+      <c r="D46" s="1">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E46" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="F46" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5">
+        <v>1993</v>
+      </c>
+      <c r="B47" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>119.1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>63.7</v>
+      </c>
+      <c r="E47" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="F47" s="1">
+        <v>11</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5">
+        <v>1994</v>
+      </c>
+      <c r="B48" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>119.4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>66.8</v>
+      </c>
+      <c r="E48" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5">
+        <v>1995</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="C49" s="1">
+        <v>112.7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B50" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>105.5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B51" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C51" s="1">
+        <v>98</v>
+      </c>
+      <c r="D51" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="E51" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B52" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>98.1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="E52" s="1">
+        <v>33.1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B53" s="1">
+        <v>28.9</v>
+      </c>
+      <c r="C53" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="D53" s="1">
+        <v>63.7</v>
+      </c>
+      <c r="E53" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F53" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B54" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>93.6</v>
+      </c>
+      <c r="D54" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F54" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B55" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>38</v>
+      </c>
+      <c r="F55" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B56" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="D56" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="E56" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="F56" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B57" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>95.1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44.1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B58" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>93.4</v>
+      </c>
+      <c r="D58" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="F58" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B59" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="D59" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="F59" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B60" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>85.8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>78.2</v>
+      </c>
+      <c r="E60" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="F60" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B61" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>86.3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="F61" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B62" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="C62" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="D62" s="1">
+        <v>91</v>
+      </c>
+      <c r="E62" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="F62" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="5">
         <v>2009</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B63" s="1">
         <v>30.3</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C63" s="1">
         <v>90.3</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D63" s="1">
         <v>93.7</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E63" s="1">
         <v>63.8</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F63" s="1">
         <v>27.8</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G63" s="1">
         <v>5.2</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H63" s="1">
         <v>0.2</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I63" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1550,16 +2360,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -1591,7 +2401,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1959</v>
       </c>
       <c r="B3" s="1">
@@ -1620,7 +2430,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1965</v>
       </c>
       <c r="B4" s="1">
@@ -1649,7 +2459,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1970</v>
       </c>
       <c r="B5" s="1">
@@ -1678,7 +2488,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1975</v>
       </c>
       <c r="B6" s="1">
@@ -1707,7 +2517,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>1980</v>
       </c>
       <c r="B7" s="1">
@@ -1736,7 +2546,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>1981</v>
       </c>
       <c r="B8" s="1">
@@ -1765,7 +2575,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>1982</v>
       </c>
       <c r="B9" s="1">
@@ -1794,7 +2604,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1983</v>
       </c>
       <c r="B10" s="1">
@@ -1823,7 +2633,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1984</v>
       </c>
       <c r="B11" s="1">
@@ -1852,7 +2662,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>1985</v>
       </c>
       <c r="B12" s="1">
@@ -1881,7 +2691,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>1986</v>
       </c>
       <c r="B13" s="1">
@@ -1910,7 +2720,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>1987</v>
       </c>
       <c r="B14" s="1">
@@ -1939,7 +2749,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>1988</v>
       </c>
       <c r="B15" s="1">
@@ -1968,7 +2778,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>1989</v>
       </c>
       <c r="B16" s="1">
@@ -1997,7 +2807,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>1990</v>
       </c>
       <c r="B17" s="1">
@@ -2026,7 +2836,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>1991</v>
       </c>
       <c r="B18" s="1">
@@ -2055,7 +2865,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>1992</v>
       </c>
       <c r="B19" s="1">
@@ -2084,7 +2894,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>1993</v>
       </c>
       <c r="B20" s="1">
@@ -2113,7 +2923,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>1994</v>
       </c>
       <c r="B21" s="1">
@@ -2142,7 +2952,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>1995</v>
       </c>
       <c r="B22" s="1">
@@ -2171,7 +2981,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>1996</v>
       </c>
       <c r="B23" s="1">
@@ -2200,7 +3010,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>1997</v>
       </c>
       <c r="B24" s="1">
@@ -2229,7 +3039,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>1998</v>
       </c>
       <c r="B25" s="1">
@@ -2258,7 +3068,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>1999</v>
       </c>
       <c r="B26" s="1">
@@ -2287,7 +3097,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>2000</v>
       </c>
       <c r="B27" s="1">
@@ -2316,7 +3126,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>2001</v>
       </c>
       <c r="B28" s="1">
@@ -2345,7 +3155,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>2002</v>
       </c>
       <c r="B29" s="1">
@@ -2374,7 +3184,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>2003</v>
       </c>
       <c r="B30" s="1">
@@ -2403,7 +3213,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>2004</v>
       </c>
       <c r="B31" s="1">
@@ -2432,7 +3242,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>2005</v>
       </c>
       <c r="B32" s="1">
@@ -2461,7 +3271,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>2006</v>
       </c>
       <c r="B33" s="1">
@@ -2490,7 +3300,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>2007</v>
       </c>
       <c r="B34" s="1">
@@ -2519,7 +3329,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>2008</v>
       </c>
       <c r="B35" s="1">
@@ -2548,7 +3358,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>2009</v>
       </c>
       <c r="B36" s="1">
@@ -2588,23 +3398,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E245E5-8A47-428E-A18A-78C249832F91}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -2636,7 +3446,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1959</v>
       </c>
       <c r="B3" s="1">
@@ -2665,7 +3475,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1965</v>
       </c>
       <c r="B4" s="1">
@@ -2694,7 +3504,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1970</v>
       </c>
       <c r="B5" s="1">
@@ -2723,7 +3533,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1975</v>
       </c>
       <c r="B6" s="1">
@@ -2752,7 +3562,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>1980</v>
       </c>
       <c r="B7" s="1">
@@ -2781,7 +3591,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>1981</v>
       </c>
       <c r="B8" s="1">
@@ -2810,7 +3620,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>1982</v>
       </c>
       <c r="B9" s="1">
@@ -2839,7 +3649,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1983</v>
       </c>
       <c r="B10" s="1">
@@ -2868,7 +3678,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1984</v>
       </c>
       <c r="B11" s="1">
@@ -2897,7 +3707,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>1985</v>
       </c>
       <c r="B12" s="1">
@@ -2926,7 +3736,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>1986</v>
       </c>
       <c r="B13" s="1">
@@ -2955,7 +3765,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>1987</v>
       </c>
       <c r="B14" s="1">
@@ -2984,7 +3794,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>1988</v>
       </c>
       <c r="B15" s="1">
@@ -3013,7 +3823,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>1989</v>
       </c>
       <c r="B16" s="1">
@@ -3042,7 +3852,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>1990</v>
       </c>
       <c r="B17" s="1">
@@ -3071,7 +3881,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>1991</v>
       </c>
       <c r="B18" s="1">
@@ -3100,7 +3910,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>1992</v>
       </c>
       <c r="B19" s="1">
@@ -3129,7 +3939,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>1993</v>
       </c>
       <c r="B20" s="1">
@@ -3158,7 +3968,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>1994</v>
       </c>
       <c r="B21" s="1">
@@ -3187,7 +3997,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>1995</v>
       </c>
       <c r="B22" s="1">
@@ -3216,7 +4026,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>1996</v>
       </c>
       <c r="B23" s="1">
@@ -3245,7 +4055,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>1997</v>
       </c>
       <c r="B24" s="1">
@@ -3274,7 +4084,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>1998</v>
       </c>
       <c r="B25" s="1">
@@ -3303,7 +4113,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>1999</v>
       </c>
       <c r="B26" s="1">
@@ -3332,7 +4142,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>2000</v>
       </c>
       <c r="B27" s="1">
@@ -3361,7 +4171,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>2001</v>
       </c>
       <c r="B28" s="1">
@@ -3390,7 +4200,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>2002</v>
       </c>
       <c r="B29" s="1">
@@ -3419,7 +4229,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>2003</v>
       </c>
       <c r="B30" s="1">
@@ -3448,7 +4258,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>2004</v>
       </c>
       <c r="B31" s="1">
@@ -3477,7 +4287,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>2005</v>
       </c>
       <c r="B32" s="1">
@@ -3506,7 +4316,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>2006</v>
       </c>
       <c r="B33" s="1">
@@ -3535,7 +4345,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>2007</v>
       </c>
       <c r="B34" s="1">
@@ -3564,7 +4374,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>2008</v>
       </c>
       <c r="B35" s="1">
@@ -3593,7 +4403,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>2009</v>
       </c>
       <c r="B36" s="1">
